--- a/nwa_projekt/Kostenrechnung.xlsx
+++ b/nwa_projekt/Kostenrechnung.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 1 - In-House Lösung" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Variante 2 - Prio365 Lösung" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Variante 3 - AWS Lösung" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Variante 4 - MSC Lösung" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Variante 4 - MSA Lösung" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Variante 5 - Hybrid Lösung" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">Prio365</t>
   </si>
   <si>
-    <t xml:space="preserve">Webanwendung</t>
+    <t xml:space="preserve">Dienstleistung</t>
   </si>
   <si>
     <t xml:space="preserve">Variante 3 – AWS Lösung</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">AWS WorkDocs</t>
   </si>
   <si>
-    <t xml:space="preserve">Variante 4 – Microsoft Cloud Lösung</t>
+    <t xml:space="preserve">Variante 4 – Microsoft Azure Lösung</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft Office 365</t>
@@ -780,7 +780,7 @@
   </sheetPr>
   <dimension ref="B1:XFD32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1681,8 +1681,8 @@
   </sheetPr>
   <dimension ref="B1:XFD29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1816,30 +1816,30 @@
       <c r="XED7" s="13"/>
       <c r="XEE7" s="13"/>
       <c r="XEF7" s="13"/>
-      <c r="XEG7" s="0"/>
-      <c r="XEH7" s="0"/>
-      <c r="XEI7" s="0"/>
-      <c r="XEJ7" s="0"/>
-      <c r="XEK7" s="0"/>
-      <c r="XEL7" s="0"/>
-      <c r="XEM7" s="0"/>
-      <c r="XEN7" s="0"/>
-      <c r="XEO7" s="0"/>
-      <c r="XEP7" s="0"/>
-      <c r="XEQ7" s="0"/>
-      <c r="XER7" s="0"/>
-      <c r="XES7" s="0"/>
-      <c r="XET7" s="0"/>
-      <c r="XEU7" s="0"/>
-      <c r="XEV7" s="0"/>
-      <c r="XEW7" s="0"/>
-      <c r="XEX7" s="0"/>
-      <c r="XEY7" s="0"/>
-      <c r="XEZ7" s="0"/>
-      <c r="XFA7" s="0"/>
-      <c r="XFB7" s="0"/>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XEG7" s="11"/>
+      <c r="XEH7" s="11"/>
+      <c r="XEI7" s="11"/>
+      <c r="XEJ7" s="11"/>
+      <c r="XEK7" s="11"/>
+      <c r="XEL7" s="11"/>
+      <c r="XEM7" s="11"/>
+      <c r="XEN7" s="11"/>
+      <c r="XEO7" s="11"/>
+      <c r="XEP7" s="11"/>
+      <c r="XEQ7" s="11"/>
+      <c r="XER7" s="11"/>
+      <c r="XES7" s="11"/>
+      <c r="XET7" s="11"/>
+      <c r="XEU7" s="11"/>
+      <c r="XEV7" s="11"/>
+      <c r="XEW7" s="11"/>
+      <c r="XEX7" s="11"/>
+      <c r="XEY7" s="11"/>
+      <c r="XEZ7" s="11"/>
+      <c r="XFA7" s="11"/>
+      <c r="XFB7" s="11"/>
+      <c r="XFC7" s="11"/>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="14" t="s">
@@ -1860,30 +1860,30 @@
       <c r="XED8" s="13"/>
       <c r="XEE8" s="13"/>
       <c r="XEF8" s="13"/>
-      <c r="XEG8" s="0"/>
-      <c r="XEH8" s="0"/>
-      <c r="XEI8" s="0"/>
-      <c r="XEJ8" s="0"/>
-      <c r="XEK8" s="0"/>
-      <c r="XEL8" s="0"/>
-      <c r="XEM8" s="0"/>
-      <c r="XEN8" s="0"/>
-      <c r="XEO8" s="0"/>
-      <c r="XEP8" s="0"/>
-      <c r="XEQ8" s="0"/>
-      <c r="XER8" s="0"/>
-      <c r="XES8" s="0"/>
-      <c r="XET8" s="0"/>
-      <c r="XEU8" s="0"/>
-      <c r="XEV8" s="0"/>
-      <c r="XEW8" s="0"/>
-      <c r="XEX8" s="0"/>
-      <c r="XEY8" s="0"/>
-      <c r="XEZ8" s="0"/>
-      <c r="XFA8" s="0"/>
-      <c r="XFB8" s="0"/>
-      <c r="XFC8" s="0"/>
-      <c r="XFD8" s="0"/>
+      <c r="XEG8" s="11"/>
+      <c r="XEH8" s="11"/>
+      <c r="XEI8" s="11"/>
+      <c r="XEJ8" s="11"/>
+      <c r="XEK8" s="11"/>
+      <c r="XEL8" s="11"/>
+      <c r="XEM8" s="11"/>
+      <c r="XEN8" s="11"/>
+      <c r="XEO8" s="11"/>
+      <c r="XEP8" s="11"/>
+      <c r="XEQ8" s="11"/>
+      <c r="XER8" s="11"/>
+      <c r="XES8" s="11"/>
+      <c r="XET8" s="11"/>
+      <c r="XEU8" s="11"/>
+      <c r="XEV8" s="11"/>
+      <c r="XEW8" s="11"/>
+      <c r="XEX8" s="11"/>
+      <c r="XEY8" s="11"/>
+      <c r="XEZ8" s="11"/>
+      <c r="XFA8" s="11"/>
+      <c r="XFB8" s="11"/>
+      <c r="XFC8" s="11"/>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
@@ -2343,30 +2343,30 @@
       <c r="XED7" s="13"/>
       <c r="XEE7" s="13"/>
       <c r="XEF7" s="13"/>
-      <c r="XEG7" s="0"/>
-      <c r="XEH7" s="0"/>
-      <c r="XEI7" s="0"/>
-      <c r="XEJ7" s="0"/>
-      <c r="XEK7" s="0"/>
-      <c r="XEL7" s="0"/>
-      <c r="XEM7" s="0"/>
-      <c r="XEN7" s="0"/>
-      <c r="XEO7" s="0"/>
-      <c r="XEP7" s="0"/>
-      <c r="XEQ7" s="0"/>
-      <c r="XER7" s="0"/>
-      <c r="XES7" s="0"/>
-      <c r="XET7" s="0"/>
-      <c r="XEU7" s="0"/>
-      <c r="XEV7" s="0"/>
-      <c r="XEW7" s="0"/>
-      <c r="XEX7" s="0"/>
-      <c r="XEY7" s="0"/>
-      <c r="XEZ7" s="0"/>
-      <c r="XFA7" s="0"/>
-      <c r="XFB7" s="0"/>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XEG7" s="11"/>
+      <c r="XEH7" s="11"/>
+      <c r="XEI7" s="11"/>
+      <c r="XEJ7" s="11"/>
+      <c r="XEK7" s="11"/>
+      <c r="XEL7" s="11"/>
+      <c r="XEM7" s="11"/>
+      <c r="XEN7" s="11"/>
+      <c r="XEO7" s="11"/>
+      <c r="XEP7" s="11"/>
+      <c r="XEQ7" s="11"/>
+      <c r="XER7" s="11"/>
+      <c r="XES7" s="11"/>
+      <c r="XET7" s="11"/>
+      <c r="XEU7" s="11"/>
+      <c r="XEV7" s="11"/>
+      <c r="XEW7" s="11"/>
+      <c r="XEX7" s="11"/>
+      <c r="XEY7" s="11"/>
+      <c r="XEZ7" s="11"/>
+      <c r="XFA7" s="11"/>
+      <c r="XFB7" s="11"/>
+      <c r="XFC7" s="11"/>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="14" t="s">
@@ -2387,30 +2387,30 @@
       <c r="XED8" s="13"/>
       <c r="XEE8" s="13"/>
       <c r="XEF8" s="13"/>
-      <c r="XEG8" s="0"/>
-      <c r="XEH8" s="0"/>
-      <c r="XEI8" s="0"/>
-      <c r="XEJ8" s="0"/>
-      <c r="XEK8" s="0"/>
-      <c r="XEL8" s="0"/>
-      <c r="XEM8" s="0"/>
-      <c r="XEN8" s="0"/>
-      <c r="XEO8" s="0"/>
-      <c r="XEP8" s="0"/>
-      <c r="XEQ8" s="0"/>
-      <c r="XER8" s="0"/>
-      <c r="XES8" s="0"/>
-      <c r="XET8" s="0"/>
-      <c r="XEU8" s="0"/>
-      <c r="XEV8" s="0"/>
-      <c r="XEW8" s="0"/>
-      <c r="XEX8" s="0"/>
-      <c r="XEY8" s="0"/>
-      <c r="XEZ8" s="0"/>
-      <c r="XFA8" s="0"/>
-      <c r="XFB8" s="0"/>
-      <c r="XFC8" s="0"/>
-      <c r="XFD8" s="0"/>
+      <c r="XEG8" s="11"/>
+      <c r="XEH8" s="11"/>
+      <c r="XEI8" s="11"/>
+      <c r="XEJ8" s="11"/>
+      <c r="XEK8" s="11"/>
+      <c r="XEL8" s="11"/>
+      <c r="XEM8" s="11"/>
+      <c r="XEN8" s="11"/>
+      <c r="XEO8" s="11"/>
+      <c r="XEP8" s="11"/>
+      <c r="XEQ8" s="11"/>
+      <c r="XER8" s="11"/>
+      <c r="XES8" s="11"/>
+      <c r="XET8" s="11"/>
+      <c r="XEU8" s="11"/>
+      <c r="XEV8" s="11"/>
+      <c r="XEW8" s="11"/>
+      <c r="XEX8" s="11"/>
+      <c r="XEY8" s="11"/>
+      <c r="XEZ8" s="11"/>
+      <c r="XFA8" s="11"/>
+      <c r="XFB8" s="11"/>
+      <c r="XFC8" s="11"/>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
@@ -2869,7 +2869,7 @@
   <dimension ref="B1:XFD29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3004,30 +3004,30 @@
       <c r="XED7" s="13"/>
       <c r="XEE7" s="13"/>
       <c r="XEF7" s="13"/>
-      <c r="XEG7" s="0"/>
-      <c r="XEH7" s="0"/>
-      <c r="XEI7" s="0"/>
-      <c r="XEJ7" s="0"/>
-      <c r="XEK7" s="0"/>
-      <c r="XEL7" s="0"/>
-      <c r="XEM7" s="0"/>
-      <c r="XEN7" s="0"/>
-      <c r="XEO7" s="0"/>
-      <c r="XEP7" s="0"/>
-      <c r="XEQ7" s="0"/>
-      <c r="XER7" s="0"/>
-      <c r="XES7" s="0"/>
-      <c r="XET7" s="0"/>
-      <c r="XEU7" s="0"/>
-      <c r="XEV7" s="0"/>
-      <c r="XEW7" s="0"/>
-      <c r="XEX7" s="0"/>
-      <c r="XEY7" s="0"/>
-      <c r="XEZ7" s="0"/>
-      <c r="XFA7" s="0"/>
-      <c r="XFB7" s="0"/>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XEG7" s="11"/>
+      <c r="XEH7" s="11"/>
+      <c r="XEI7" s="11"/>
+      <c r="XEJ7" s="11"/>
+      <c r="XEK7" s="11"/>
+      <c r="XEL7" s="11"/>
+      <c r="XEM7" s="11"/>
+      <c r="XEN7" s="11"/>
+      <c r="XEO7" s="11"/>
+      <c r="XEP7" s="11"/>
+      <c r="XEQ7" s="11"/>
+      <c r="XER7" s="11"/>
+      <c r="XES7" s="11"/>
+      <c r="XET7" s="11"/>
+      <c r="XEU7" s="11"/>
+      <c r="XEV7" s="11"/>
+      <c r="XEW7" s="11"/>
+      <c r="XEX7" s="11"/>
+      <c r="XEY7" s="11"/>
+      <c r="XEZ7" s="11"/>
+      <c r="XFA7" s="11"/>
+      <c r="XFB7" s="11"/>
+      <c r="XFC7" s="11"/>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="14" t="s">
@@ -3503,30 +3503,30 @@
       <c r="XED7" s="13"/>
       <c r="XEE7" s="13"/>
       <c r="XEF7" s="13"/>
-      <c r="XEG7" s="0"/>
-      <c r="XEH7" s="0"/>
-      <c r="XEI7" s="0"/>
-      <c r="XEJ7" s="0"/>
-      <c r="XEK7" s="0"/>
-      <c r="XEL7" s="0"/>
-      <c r="XEM7" s="0"/>
-      <c r="XEN7" s="0"/>
-      <c r="XEO7" s="0"/>
-      <c r="XEP7" s="0"/>
-      <c r="XEQ7" s="0"/>
-      <c r="XER7" s="0"/>
-      <c r="XES7" s="0"/>
-      <c r="XET7" s="0"/>
-      <c r="XEU7" s="0"/>
-      <c r="XEV7" s="0"/>
-      <c r="XEW7" s="0"/>
-      <c r="XEX7" s="0"/>
-      <c r="XEY7" s="0"/>
-      <c r="XEZ7" s="0"/>
-      <c r="XFA7" s="0"/>
-      <c r="XFB7" s="0"/>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XEG7" s="11"/>
+      <c r="XEH7" s="11"/>
+      <c r="XEI7" s="11"/>
+      <c r="XEJ7" s="11"/>
+      <c r="XEK7" s="11"/>
+      <c r="XEL7" s="11"/>
+      <c r="XEM7" s="11"/>
+      <c r="XEN7" s="11"/>
+      <c r="XEO7" s="11"/>
+      <c r="XEP7" s="11"/>
+      <c r="XEQ7" s="11"/>
+      <c r="XER7" s="11"/>
+      <c r="XES7" s="11"/>
+      <c r="XET7" s="11"/>
+      <c r="XEU7" s="11"/>
+      <c r="XEV7" s="11"/>
+      <c r="XEW7" s="11"/>
+      <c r="XEX7" s="11"/>
+      <c r="XEY7" s="11"/>
+      <c r="XEZ7" s="11"/>
+      <c r="XFA7" s="11"/>
+      <c r="XFB7" s="11"/>
+      <c r="XFC7" s="11"/>
+      <c r="XFD7" s="11"/>
     </row>
     <row r="8" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="14" t="s">
@@ -3547,30 +3547,30 @@
       <c r="XED8" s="13"/>
       <c r="XEE8" s="13"/>
       <c r="XEF8" s="13"/>
-      <c r="XEG8" s="0"/>
-      <c r="XEH8" s="0"/>
-      <c r="XEI8" s="0"/>
-      <c r="XEJ8" s="0"/>
-      <c r="XEK8" s="0"/>
-      <c r="XEL8" s="0"/>
-      <c r="XEM8" s="0"/>
-      <c r="XEN8" s="0"/>
-      <c r="XEO8" s="0"/>
-      <c r="XEP8" s="0"/>
-      <c r="XEQ8" s="0"/>
-      <c r="XER8" s="0"/>
-      <c r="XES8" s="0"/>
-      <c r="XET8" s="0"/>
-      <c r="XEU8" s="0"/>
-      <c r="XEV8" s="0"/>
-      <c r="XEW8" s="0"/>
-      <c r="XEX8" s="0"/>
-      <c r="XEY8" s="0"/>
-      <c r="XEZ8" s="0"/>
-      <c r="XFA8" s="0"/>
-      <c r="XFB8" s="0"/>
-      <c r="XFC8" s="0"/>
-      <c r="XFD8" s="0"/>
+      <c r="XEG8" s="11"/>
+      <c r="XEH8" s="11"/>
+      <c r="XEI8" s="11"/>
+      <c r="XEJ8" s="11"/>
+      <c r="XEK8" s="11"/>
+      <c r="XEL8" s="11"/>
+      <c r="XEM8" s="11"/>
+      <c r="XEN8" s="11"/>
+      <c r="XEO8" s="11"/>
+      <c r="XEP8" s="11"/>
+      <c r="XEQ8" s="11"/>
+      <c r="XER8" s="11"/>
+      <c r="XES8" s="11"/>
+      <c r="XET8" s="11"/>
+      <c r="XEU8" s="11"/>
+      <c r="XEV8" s="11"/>
+      <c r="XEW8" s="11"/>
+      <c r="XEX8" s="11"/>
+      <c r="XEY8" s="11"/>
+      <c r="XEZ8" s="11"/>
+      <c r="XFA8" s="11"/>
+      <c r="XFB8" s="11"/>
+      <c r="XFC8" s="11"/>
+      <c r="XFD8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
